--- a/Questions/FINAL450.xlsx
+++ b/Questions/FINAL450.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Documents\DSA Practice Questions\Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A22F59D-FFEF-4739-9505-81E6605580FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04C378B6-C49C-46D1-969C-54F36A88480E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1355" uniqueCount="483">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1355" uniqueCount="484">
   <si>
     <t>Topic:</t>
   </si>
@@ -1474,6 +1474,9 @@
   </si>
   <si>
     <t>Yes/Aditya Verma</t>
+  </si>
+  <si>
+    <t>Yes/Online - Abdul Bari</t>
   </si>
 </sst>
 </file>
@@ -1904,8 +1907,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C469"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A397" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B406" sqref="B406"/>
+    <sheetView tabSelected="1" topLeftCell="A374" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B389" sqref="B389"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -5582,7 +5585,7 @@
         <v>335</v>
       </c>
       <c r="C346" s="4" t="s">
-        <v>3</v>
+        <v>479</v>
       </c>
     </row>
     <row r="347" spans="1:3" ht="21">
@@ -5703,7 +5706,7 @@
         <v>346</v>
       </c>
       <c r="C357" s="4" t="s">
-        <v>3</v>
+        <v>479</v>
       </c>
     </row>
     <row r="358" spans="1:3" ht="21">
@@ -5802,7 +5805,7 @@
         <v>355</v>
       </c>
       <c r="C366" s="4" t="s">
-        <v>3</v>
+        <v>483</v>
       </c>
     </row>
     <row r="367" spans="1:3" ht="21">
@@ -5813,7 +5816,7 @@
         <v>356</v>
       </c>
       <c r="C367" s="4" t="s">
-        <v>3</v>
+        <v>483</v>
       </c>
     </row>
     <row r="368" spans="1:3" ht="21">
@@ -5824,7 +5827,7 @@
         <v>357</v>
       </c>
       <c r="C368" s="4" t="s">
-        <v>3</v>
+        <v>483</v>
       </c>
     </row>
     <row r="369" spans="1:3" ht="21">
@@ -5835,7 +5838,7 @@
         <v>358</v>
       </c>
       <c r="C369" s="4" t="s">
-        <v>3</v>
+        <v>483</v>
       </c>
     </row>
     <row r="370" spans="1:3" ht="21">
@@ -5978,7 +5981,7 @@
         <v>370</v>
       </c>
       <c r="C382" s="4" t="s">
-        <v>3</v>
+        <v>483</v>
       </c>
     </row>
     <row r="383" spans="1:3" ht="21">

--- a/Questions/FINAL450.xlsx
+++ b/Questions/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Documents\DSA Practice Questions\Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04C378B6-C49C-46D1-969C-54F36A88480E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{184315BA-D2BC-449C-AC91-95E63917B48F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1907,8 +1907,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C469"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A374" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B389" sqref="B389"/>
+    <sheetView tabSelected="1" topLeftCell="A443" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B450" sqref="B450"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -4397,7 +4397,7 @@
         <v>228</v>
       </c>
       <c r="C233" s="4" t="s">
-        <v>3</v>
+        <v>483</v>
       </c>
     </row>
     <row r="234" spans="1:3" ht="21">

--- a/Questions/FINAL450.xlsx
+++ b/Questions/FINAL450.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Documents\DSA Practice Questions\Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{184315BA-D2BC-449C-AC91-95E63917B48F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75A2ABFF-79CD-4ACD-86DE-88958899F585}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1907,8 +1907,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C469"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A443" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B450" sqref="B450"/>
+    <sheetView tabSelected="1" topLeftCell="A226" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B234" sqref="B234"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -6069,7 +6069,7 @@
         <v>379</v>
       </c>
       <c r="C391" s="4" t="s">
-        <v>3</v>
+        <v>479</v>
       </c>
     </row>
     <row r="392" spans="1:3" ht="21">
@@ -6080,7 +6080,7 @@
         <v>380</v>
       </c>
       <c r="C392" s="4" t="s">
-        <v>3</v>
+        <v>479</v>
       </c>
     </row>
     <row r="393" spans="1:3" ht="21">
@@ -6091,7 +6091,7 @@
         <v>381</v>
       </c>
       <c r="C393" s="4" t="s">
-        <v>3</v>
+        <v>479</v>
       </c>
     </row>
     <row r="394" spans="1:3" ht="21">
@@ -6102,7 +6102,7 @@
         <v>88</v>
       </c>
       <c r="C394" s="4" t="s">
-        <v>3</v>
+        <v>479</v>
       </c>
     </row>
     <row r="395" spans="1:3" ht="21">
@@ -6113,7 +6113,7 @@
         <v>382</v>
       </c>
       <c r="C395" s="4" t="s">
-        <v>3</v>
+        <v>479</v>
       </c>
     </row>
     <row r="396" spans="1:3" ht="21">
@@ -6124,7 +6124,7 @@
         <v>383</v>
       </c>
       <c r="C396" s="4" t="s">
-        <v>3</v>
+        <v>479</v>
       </c>
     </row>
     <row r="398" spans="1:3" ht="21">

--- a/Questions/FINAL450.xlsx
+++ b/Questions/FINAL450.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Documents\DSA Practice Questions\Questions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Coding Playground\DSA Practice Questions\Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75A2ABFF-79CD-4ACD-86DE-88958899F585}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51371704-31E3-4909-99CA-052C2F4F19FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1355" uniqueCount="484">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1355" uniqueCount="485">
   <si>
     <t>Topic:</t>
   </si>
@@ -1477,6 +1477,9 @@
   </si>
   <si>
     <t>Yes/Online - Abdul Bari</t>
+  </si>
+  <si>
+    <t>Yes/LoveBabbar</t>
   </si>
 </sst>
 </file>
@@ -1907,8 +1910,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C469"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A226" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B234" sqref="B234"/>
+    <sheetView tabSelected="1" topLeftCell="A464" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B471" sqref="B471"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -3337,7 +3340,7 @@
         <v>130</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>467</v>
+        <v>454</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="21">
@@ -4243,7 +4246,7 @@
         <v>213</v>
       </c>
       <c r="C218" s="4" t="s">
-        <v>467</v>
+        <v>484</v>
       </c>
     </row>
     <row r="219" spans="1:3" ht="21">
